--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A654CE8-9903-4319-8C06-E6B5EF8AC311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AB9D7-2B8B-4911-A3E7-120C59BA9085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14715" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>번호</t>
   </si>
@@ -470,78 +470,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설치형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정령</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소환형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정령</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix_Soul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summon_Soul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공격속도</t>
@@ -707,10 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,20 +725,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -888,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -911,26 +822,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,16 +841,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,9 +853,27 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,27 +884,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,84 +1200,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="13.25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.125" style="21" customWidth="1"/>
-    <col min="11" max="14" width="9" style="21"/>
-    <col min="15" max="15" width="13.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9" style="21"/>
-    <col min="18" max="18" width="28.875" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="2.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="13.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.125" style="11" customWidth="1"/>
+    <col min="11" max="14" width="9" style="11"/>
+    <col min="15" max="15" width="13.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9" style="11"/>
+    <col min="18" max="18" width="28.875" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>37</v>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
@@ -1399,124 +1285,124 @@
       <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>46</v>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="10" t="s">
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1524,406 +1410,314 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100156</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>100</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8">
+        <v>121001</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>10</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="8">
         <v>1.5</v>
       </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>30</v>
-      </c>
-      <c r="O6" s="4">
-        <v>40</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3"/>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
+      <c r="O6" s="8">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3">
+        <v>170001</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>970006</v>
+      </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100159</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8">
+        <v>121002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8">
+        <v>10</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
-        <v>120</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>30</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
+      <c r="O7" s="8">
         <v>40</v>
       </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3"/>
+      <c r="P7" s="3">
+        <v>170002</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>970001</v>
+      </c>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="18">
-        <v>121001</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="8">
+        <v>122001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="8">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="G8" s="18">
+      <c r="N8" s="8">
         <v>3</v>
       </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>6</v>
-      </c>
-      <c r="J8" s="18">
-        <v>10</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="L8" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="M8" s="18">
-        <v>2</v>
-      </c>
-      <c r="N8" s="18">
-        <v>5</v>
-      </c>
-      <c r="O8" s="18">
-        <v>20</v>
+      <c r="O8" s="8">
+        <v>120</v>
       </c>
       <c r="P8" s="3">
-        <v>170001</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>970006</v>
+        <v>170003</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>970013</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="18">
-        <v>121002</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8">
+        <v>122002</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="18">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <v>6</v>
-      </c>
-      <c r="J9" s="18">
-        <v>10</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="L9" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="M9" s="18">
-        <v>2</v>
-      </c>
-      <c r="N9" s="18">
-        <v>5</v>
-      </c>
-      <c r="O9" s="18">
-        <v>40</v>
+      <c r="N9" s="8">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>20</v>
       </c>
       <c r="P9" s="3">
-        <v>170002</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>970001</v>
+        <v>170004</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>970005</v>
       </c>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="18">
-        <v>122001</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="8">
+        <v>123001</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="18">
-        <v>2</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="8">
+        <v>6</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
         <v>4</v>
       </c>
-      <c r="J10" s="18">
-        <v>10</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>3</v>
-      </c>
-      <c r="N10" s="18">
-        <v>3</v>
-      </c>
-      <c r="O10" s="18">
-        <v>120</v>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>35</v>
       </c>
       <c r="P10" s="3">
-        <v>170003</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>970013</v>
+        <v>170005</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>970004</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="18">
-        <v>122002</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="8">
+        <v>123002</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="18">
-        <v>4</v>
-      </c>
-      <c r="J11" s="18">
+      <c r="I11" s="8">
+        <v>11</v>
+      </c>
+      <c r="J11" s="8">
         <v>0</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="8">
         <v>0</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="8">
         <v>3</v>
       </c>
-      <c r="N11" s="18">
-        <v>3</v>
-      </c>
-      <c r="O11" s="18">
+      <c r="N11" s="8">
+        <v>10</v>
+      </c>
+      <c r="O11" s="8">
         <v>20</v>
       </c>
       <c r="P11" s="3">
-        <v>170004</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>970005</v>
+        <v>170006</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>970009</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="18">
-        <v>123001</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
-        <v>6</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="18">
-        <v>4</v>
-      </c>
-      <c r="N12" s="18">
-        <v>5</v>
-      </c>
-      <c r="O12" s="18">
-        <v>35</v>
-      </c>
-      <c r="P12" s="3">
-        <v>170005</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>970004</v>
-      </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="18">
-        <v>123002</v>
-      </c>
-      <c r="F13" s="18">
-        <v>2</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <v>11</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>3</v>
-      </c>
-      <c r="N13" s="18">
-        <v>10</v>
-      </c>
-      <c r="O13" s="18">
-        <v>20</v>
-      </c>
-      <c r="P13" s="3">
-        <v>170006</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>970009</v>
-      </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="16">
+      <c r="B14" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1955,16 +1749,6 @@
     <row r="20" spans="2:2">
       <c r="B20" s="2">
         <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +1769,7 @@
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="17" man="1"/>
-    <brk id="13" max="17" man="1"/>
+    <brk id="11" max="17" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="22" man="1"/>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AB9D7-2B8B-4911-A3E7-120C59BA9085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF69B7AE-762C-4B88-AA5F-81073542F303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Spirit_Table!$B$5:$O$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Spirit_Table!$A$1:$O$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="2" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
+    <comment ref="M2" authorId="2" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="3" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
+    <comment ref="N2" authorId="3" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
       <text>
         <r>
           <rPr>
@@ -363,32 +363,6 @@
             <charset val="129"/>
           </rPr>
           <t>공격</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.00 = 100%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="2" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.00 = 100%</t>
         </r>
       </text>
     </comment>
@@ -397,7 +371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>번호</t>
   </si>
@@ -423,12 +397,6 @@
     <t>공격력</t>
   </si>
   <si>
-    <t>치명타 확률</t>
-  </si>
-  <si>
-    <t>치명타 배율</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -438,13 +406,10 @@
     <t>Name_EN</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
     <t>Atk</t>
-  </si>
-  <si>
-    <t>Crit_rate</t>
-  </si>
-  <si>
-    <t>Crit_Dmg</t>
   </si>
   <si>
     <t>Skill1Code</t>
@@ -470,6 +435,14 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Fix_Soul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon_Soul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공격속도</t>
@@ -567,67 +540,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ChaceTarget</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감지대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpritTableIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>독 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근 불가 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 증가 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invincibility_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeepAway_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speedup_Spirit</t>
+    <t>타일 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비타일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타일 고정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,6 +584,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -673,6 +625,11 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -727,6 +684,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -734,40 +705,20 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,18 +743,25 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -822,68 +780,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,567 +1274,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B20"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="13.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.125" style="11" customWidth="1"/>
-    <col min="11" max="14" width="9" style="11"/>
-    <col min="15" max="15" width="13.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9" style="11"/>
-    <col min="18" max="18" width="28.875" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:15">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100100</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>100</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>30</v>
+      </c>
+      <c r="L6" s="14">
+        <v>40</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12">
+        <v>100200</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>120</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>30</v>
+      </c>
+      <c r="L7" s="14">
+        <v>40</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12">
+        <v>100300</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>120</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <v>30</v>
+      </c>
+      <c r="L8" s="14">
+        <v>40</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="1" t="s">
+      <c r="C9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12">
+        <v>100400</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>100</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>30</v>
+      </c>
+      <c r="L9" s="14">
+        <v>40</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="C10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="12">
+        <v>100500</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12">
+        <v>120</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>30</v>
+      </c>
+      <c r="L10" s="14">
+        <v>40</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="R2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="C11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="D11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12">
+        <v>100600</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>120</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
         <v>30</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="8">
-        <v>121001</v>
-      </c>
-      <c r="F6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="L11" s="14">
+        <v>40</v>
+      </c>
+      <c r="M11" s="15">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>10</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="M6" s="8">
-        <v>2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>5</v>
-      </c>
-      <c r="O6" s="8">
-        <v>20</v>
-      </c>
-      <c r="P6" s="3">
-        <v>170001</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>970006</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="8">
-        <v>121002</v>
-      </c>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="N11" s="12">
         <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>6</v>
-      </c>
-      <c r="J7" s="8">
-        <v>10</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="M7" s="8">
-        <v>2</v>
-      </c>
-      <c r="N7" s="8">
-        <v>5</v>
-      </c>
-      <c r="O7" s="8">
-        <v>40</v>
-      </c>
-      <c r="P7" s="3">
-        <v>170002</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>970001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="8">
-        <v>122001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>4</v>
-      </c>
-      <c r="J8" s="8">
-        <v>10</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>3</v>
-      </c>
-      <c r="N8" s="8">
-        <v>3</v>
-      </c>
-      <c r="O8" s="8">
-        <v>120</v>
-      </c>
-      <c r="P8" s="3">
-        <v>170003</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>970013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="8">
-        <v>122002</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>4</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>3</v>
-      </c>
-      <c r="N9" s="8">
-        <v>3</v>
-      </c>
-      <c r="O9" s="8">
-        <v>20</v>
-      </c>
-      <c r="P9" s="3">
-        <v>170004</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>970005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="8">
-        <v>123001</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>6</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>4</v>
-      </c>
-      <c r="N10" s="8">
-        <v>5</v>
-      </c>
-      <c r="O10" s="8">
-        <v>35</v>
-      </c>
-      <c r="P10" s="3">
-        <v>170005</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>970004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="8">
-        <v>123002</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>11</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>3</v>
-      </c>
-      <c r="N11" s="8">
-        <v>10</v>
-      </c>
-      <c r="O11" s="8">
-        <v>20</v>
-      </c>
-      <c r="P11" s="3">
-        <v>170006</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>970009</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
+  <autoFilter ref="B5:O5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="9">
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H2:L2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
@@ -1768,12 +1710,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="3" max="17" man="1"/>
-    <brk id="11" max="17" man="1"/>
+    <brk id="3" max="14" man="1"/>
+    <brk id="11" max="14" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="22" man="1"/>
-    <brk id="17" max="22" man="1"/>
+    <brk id="1" max="19" man="1"/>
+    <brk id="14" min="1" max="19" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF69B7AE-762C-4B88-AA5F-81073542F303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AB9D7-2B8B-4911-A3E7-120C59BA9085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
+    <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Spirit_Table!$B$5:$O$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Spirit_Table!$A$1:$O$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="2" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
+    <comment ref="P2" authorId="2" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="3" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
+    <comment ref="Q2" authorId="3" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
       <text>
         <r>
           <rPr>
@@ -363,6 +363,32 @@
             <charset val="129"/>
           </rPr>
           <t>공격</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.00 = 100%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="2" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.00 = 100%</t>
         </r>
       </text>
     </comment>
@@ -371,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>번호</t>
   </si>
@@ -397,6 +423,12 @@
     <t>공격력</t>
   </si>
   <si>
+    <t>치명타 확률</t>
+  </si>
+  <si>
+    <t>치명타 배율</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -406,10 +438,13 @@
     <t>Name_EN</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Atk</t>
+  </si>
+  <si>
+    <t>Crit_rate</t>
+  </si>
+  <si>
+    <t>Crit_Dmg</t>
   </si>
   <si>
     <t>Skill1Code</t>
@@ -435,14 +470,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Fix_Soul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summon_Soul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공격속도</t>
@@ -540,43 +567,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>타일 소환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비타일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타일 고정</t>
+    <t>ChaceTarget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감지대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpritTableIndex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 불가 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속 증가 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincibility_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepAway_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speedup_Spirit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,9 +635,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -625,11 +673,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -684,20 +727,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -705,20 +734,40 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,25 +792,18 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -780,184 +822,68 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,435 +1200,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:O11"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="2.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="13.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.125" style="11" customWidth="1"/>
+    <col min="11" max="14" width="9" style="11"/>
+    <col min="15" max="15" width="13.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9" style="11"/>
+    <col min="18" max="18" width="28.875" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:18">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="23" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8">
+        <v>121001</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>10</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
+      <c r="O6" s="8">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3">
+        <v>170001</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>970006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8">
+        <v>121002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8">
+        <v>10</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
+      <c r="O7" s="8">
+        <v>40</v>
+      </c>
+      <c r="P7" s="3">
+        <v>170002</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>970001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="8">
+        <v>122001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
         <v>4</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="8" t="s">
+      <c r="J8" s="8">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8">
+        <v>120</v>
+      </c>
+      <c r="P8" s="3">
+        <v>170003</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>970013</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8">
+        <v>122002</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+      <c r="N9" s="8">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>20</v>
+      </c>
+      <c r="P9" s="3">
+        <v>170004</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>970005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="8">
+        <v>123001</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
         <v>6</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="1" t="s">
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>4</v>
+      </c>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>35</v>
+      </c>
+      <c r="P10" s="3">
+        <v>170005</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>970004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="8">
+        <v>123002</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>11</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8">
+        <v>10</v>
+      </c>
+      <c r="O11" s="8">
+        <v>20</v>
+      </c>
+      <c r="P11" s="3">
+        <v>170006</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>970009</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="N4" s="2" t="s">
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2">
         <v>14</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="12">
-        <v>100100</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>100</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>30</v>
-      </c>
-      <c r="L6" s="14">
-        <v>40</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="12">
-        <v>100200</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12">
-        <v>2</v>
-      </c>
-      <c r="H7" s="12">
-        <v>120</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>30</v>
-      </c>
-      <c r="L7" s="14">
-        <v>40</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="12">
-        <v>100300</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>3</v>
-      </c>
-      <c r="H8" s="12">
-        <v>120</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8" s="14">
-        <v>30</v>
-      </c>
-      <c r="L8" s="14">
-        <v>40</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="11">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="12">
-        <v>100400</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>100</v>
-      </c>
-      <c r="I9" s="13">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>30</v>
-      </c>
-      <c r="L9" s="14">
-        <v>40</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="12">
-        <v>100500</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2</v>
-      </c>
-      <c r="H10" s="12">
-        <v>120</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>30</v>
-      </c>
-      <c r="L10" s="14">
-        <v>40</v>
-      </c>
-      <c r="M10" s="15">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="12">
-        <v>100600</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3</v>
-      </c>
-      <c r="G11" s="12">
-        <v>3</v>
-      </c>
-      <c r="H11" s="12">
-        <v>120</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="14">
-        <v>30</v>
-      </c>
-      <c r="L11" s="14">
-        <v>40</v>
-      </c>
-      <c r="M11" s="15">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:O5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
+  <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="9">
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="H2:O2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
@@ -1710,12 +1768,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="3" max="14" man="1"/>
-    <brk id="11" max="14" man="1"/>
+    <brk id="3" max="17" man="1"/>
+    <brk id="11" max="17" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="19" man="1"/>
-    <brk id="14" min="1" max="19" man="1"/>
+    <brk id="1" max="22" man="1"/>
+    <brk id="17" max="22" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AB9D7-2B8B-4911-A3E7-120C59BA9085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74C730-AA99-4802-A636-02187CF43270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Spirit_Table!$B$5:$R$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Spirit_Table!$A$1:$R$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1206,7 +1206,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B20"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74C730-AA99-4802-A636-02187CF43270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476293C9-4C78-4DDC-9AF7-39FCE9968999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Spirit_Table!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Spirit_Table!$A$1:$R$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Spirit_Table!$A$1:$R$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>번호</t>
   </si>
@@ -591,10 +591,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>무적 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>접근 불가 정령</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -628,6 +624,58 @@
   </si>
   <si>
     <t>Speedup_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참격 사신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이프리트 기둥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이프리트 폭파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사티러 장풍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사티러 냉기탄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 증가 마녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발키리 2호 힐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤 무적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골램 밀치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살자 스턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤먼의 대형 회복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +814,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -799,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -822,13 +898,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,9 +931,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +954,21 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,6 +985,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,83 +1304,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="13.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.125" style="11" customWidth="1"/>
-    <col min="11" max="14" width="9" style="11"/>
-    <col min="15" max="15" width="13.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9" style="11"/>
-    <col min="18" max="18" width="28.875" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="2.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="13.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="9.125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="10"/>
+    <col min="15" max="15" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9" style="10"/>
+    <col min="18" max="18" width="28.875" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="5" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1294,115 +1401,115 @@
       <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="14"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1410,345 +1517,885 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7">
         <v>121001</v>
       </c>
-      <c r="F6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>10</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
         <v>0.15</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>1.5</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>2</v>
       </c>
-      <c r="N6" s="8">
-        <v>5</v>
-      </c>
-      <c r="O6" s="8">
-        <v>20</v>
+      <c r="N6" s="7">
+        <v>10</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2</v>
       </c>
       <c r="P6" s="3">
         <v>170001</v>
       </c>
-      <c r="Q6" s="12">
-        <v>970006</v>
+      <c r="Q6" s="11">
+        <v>921001</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7">
         <v>121002</v>
       </c>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>6</v>
-      </c>
-      <c r="J7" s="8">
-        <v>10</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="M7" s="8">
-        <v>2</v>
-      </c>
-      <c r="N7" s="8">
-        <v>5</v>
-      </c>
-      <c r="O7" s="8">
-        <v>40</v>
+      <c r="N7" s="7">
+        <v>10</v>
+      </c>
+      <c r="O7" s="7">
+        <v>4</v>
       </c>
       <c r="P7" s="3">
         <v>170002</v>
       </c>
-      <c r="Q7" s="12">
-        <v>970001</v>
+      <c r="Q7" s="11">
+        <v>921001</v>
       </c>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="8">
-        <v>122001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="7">
+        <v>121003</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>10</v>
+      </c>
+      <c r="O8" s="7">
         <v>4</v>
       </c>
-      <c r="J8" s="8">
-        <v>10</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>3</v>
-      </c>
-      <c r="N8" s="8">
-        <v>3</v>
-      </c>
-      <c r="O8" s="8">
-        <v>120</v>
-      </c>
       <c r="P8" s="3">
-        <v>170003</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>970013</v>
+        <v>170007</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="8">
-        <v>122002</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>4</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>3</v>
-      </c>
-      <c r="N9" s="8">
-        <v>3</v>
-      </c>
-      <c r="O9" s="8">
-        <v>20</v>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7">
+        <v>121004</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>10</v>
+      </c>
+      <c r="O9" s="7">
+        <v>10</v>
       </c>
       <c r="P9" s="3">
-        <v>170004</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>970005</v>
+        <v>170008</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="8">
-        <v>123001</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="7">
+        <v>121005</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>6</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>4</v>
-      </c>
-      <c r="N10" s="8">
-        <v>5</v>
-      </c>
-      <c r="O10" s="8">
-        <v>35</v>
+      <c r="N10" s="7">
+        <v>10</v>
+      </c>
+      <c r="O10" s="7">
+        <v>10</v>
       </c>
       <c r="P10" s="3">
-        <v>170005</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>970004</v>
+        <v>170009</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="8">
-        <v>123002</v>
-      </c>
-      <c r="F11" s="8">
+        <v>67</v>
+      </c>
+      <c r="E11" s="7">
+        <v>121006</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>11</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>3</v>
-      </c>
-      <c r="N11" s="8">
-        <v>10</v>
-      </c>
-      <c r="O11" s="8">
-        <v>20</v>
+      <c r="N11" s="7">
+        <v>10</v>
+      </c>
+      <c r="O11" s="7">
+        <v>5</v>
       </c>
       <c r="P11" s="3">
-        <v>170006</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>970009</v>
+        <v>170010</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>7</v>
       </c>
+      <c r="C12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="7">
+        <v>121007</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>10</v>
+      </c>
+      <c r="O12" s="7">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>170011</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>8</v>
       </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7">
+        <v>121008</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10</v>
+      </c>
+      <c r="O13" s="7">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3">
+        <v>170012</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="2">
         <v>9</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="7">
+        <v>122001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="7">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7">
+        <v>12</v>
+      </c>
+      <c r="P14" s="3">
+        <v>170003</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7">
+        <v>122002</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>5</v>
+      </c>
+      <c r="O15" s="7">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
+        <v>170004</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>922002</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="7">
+        <v>122003</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5</v>
+      </c>
+      <c r="O16" s="7">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3">
+        <v>170013</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="7">
+        <v>122004</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5</v>
+      </c>
+      <c r="O17" s="7">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
+        <v>170014</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>922001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="7">
+        <v>123001</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5</v>
+      </c>
+      <c r="J18" s="7">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>10</v>
+      </c>
+      <c r="O18" s="7">
+        <v>15</v>
+      </c>
+      <c r="P18" s="3">
+        <v>170005</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>923001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7">
+        <v>123002</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10</v>
+      </c>
+      <c r="O19" s="7">
+        <v>5</v>
+      </c>
+      <c r="P19" s="3">
+        <v>170006</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>923002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" s="2">
         <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="7">
+        <v>123003</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>10</v>
+      </c>
+      <c r="O20" s="7">
+        <v>30</v>
+      </c>
+      <c r="P20" s="3">
+        <v>170015</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7">
+        <v>123004</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5</v>
+      </c>
+      <c r="J21" s="7">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="7">
+        <v>3</v>
+      </c>
+      <c r="N21" s="7">
+        <v>10</v>
+      </c>
+      <c r="O21" s="7">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
+        <v>170016</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="2">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="7">
+        <v>123005</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>3</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>10</v>
+      </c>
+      <c r="O22" s="7">
+        <v>15</v>
+      </c>
+      <c r="P22" s="3">
+        <v>170017</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +2416,7 @@
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="17" man="1"/>
-    <brk id="11" max="17" man="1"/>
+    <brk id="22" max="17" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="22" man="1"/>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476293C9-4C78-4DDC-9AF7-39FCE9968999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4440085-8646-4238-97E5-1931D676C424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1610,7 +1610,7 @@
         <v>170002</v>
       </c>
       <c r="Q7" s="11">
-        <v>921001</v>
+        <v>921002</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -1660,7 +1660,7 @@
         <v>170007</v>
       </c>
       <c r="Q8" s="11">
-        <v>0</v>
+        <v>921006</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -1710,7 +1710,7 @@
         <v>170008</v>
       </c>
       <c r="Q9" s="11">
-        <v>0</v>
+        <v>921007</v>
       </c>
     </row>
     <row r="10" spans="2:18">

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4440085-8646-4238-97E5-1931D676C424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801EA3B1-9F1E-4C92-BCA7-E46A2774E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-17865" yWindow="3795" windowWidth="13650" windowHeight="10800" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
@@ -969,6 +969,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,9 +988,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,7 +1307,7 @@
   <dimension ref="B2:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
@@ -1332,51 +1332,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1404,8 +1404,8 @@
       <c r="P3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="6" t="s">
@@ -1554,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" s="3">
         <v>170001</v>
@@ -1604,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" s="3">
         <v>170002</v>
@@ -1654,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="3">
         <v>170007</v>
@@ -1670,7 +1670,7 @@
       <c r="C9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="7">
@@ -1704,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3">
         <v>170008</v>
@@ -1720,7 +1720,7 @@
       <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="7">
@@ -1754,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P10" s="3">
         <v>170009</v>
@@ -1951,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O14" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>170003</v>
@@ -2001,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="7">
         <v>5</v>
@@ -2051,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O16" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P16" s="3">
         <v>170013</v>
@@ -2101,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O17" s="7">
         <v>5</v>
@@ -2148,13 +2148,13 @@
         <v>1.5</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
         <v>10</v>
       </c>
       <c r="O18" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P18" s="3">
         <v>170005</v>
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="O20" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3">
         <v>170015</v>
@@ -2354,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>170017</v>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801EA3B1-9F1E-4C92-BCA7-E46A2774E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17865" yWindow="3795" windowWidth="13650" windowHeight="10800" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-17865" yWindow="3795" windowWidth="13650" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Spirit_Table!$B$5:$R$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Spirit_Table!$A$1:$R$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PC-07</author>
     <author>sangmin Lee</author>
@@ -44,7 +43,7 @@
     <author>강민수</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{598D2E25-942B-4E50-97C9-037EDEE9FC95}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{604B894A-2A41-4FD7-841F-25FFC4D46FC8}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="2" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
+    <comment ref="P2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="3" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
+    <comment ref="Q2" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{0284D678-96DA-46FF-9A50-59643832E430}">
+    <comment ref="I3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
+    <comment ref="K3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="2" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
+    <comment ref="L3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +681,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -1303,14 +1302,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1760,7 +1759,7 @@
         <v>170009</v>
       </c>
       <c r="Q10" s="11">
-        <v>0</v>
+        <v>921008</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1810,7 +1809,7 @@
         <v>170010</v>
       </c>
       <c r="Q11" s="11">
-        <v>0</v>
+        <v>921009</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -1860,7 +1859,7 @@
         <v>170011</v>
       </c>
       <c r="Q12" s="11">
-        <v>0</v>
+        <v>921010</v>
       </c>
     </row>
     <row r="13" spans="2:18">
@@ -1910,7 +1909,7 @@
         <v>170012</v>
       </c>
       <c r="Q13" s="11">
-        <v>0</v>
+        <v>921011</v>
       </c>
     </row>
     <row r="14" spans="2:18">
@@ -1960,7 +1959,7 @@
         <v>170003</v>
       </c>
       <c r="Q14" s="11">
-        <v>0</v>
+        <v>922003</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -2060,7 +2059,7 @@
         <v>170013</v>
       </c>
       <c r="Q16" s="11">
-        <v>0</v>
+        <v>922004</v>
       </c>
     </row>
     <row r="17" spans="2:17">
@@ -2260,7 +2259,7 @@
         <v>170015</v>
       </c>
       <c r="Q20" s="11">
-        <v>0</v>
+        <v>923007</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -2310,7 +2309,7 @@
         <v>170016</v>
       </c>
       <c r="Q21" s="11">
-        <v>0</v>
+        <v>923008</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -2359,8 +2358,8 @@
       <c r="P22" s="3">
         <v>170017</v>
       </c>
-      <c r="Q22" s="7">
-        <v>0</v>
+      <c r="Q22" s="11">
+        <v>923009</v>
       </c>
     </row>
     <row r="23" spans="2:17">
@@ -2399,7 +2398,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
+  <autoFilter ref="B5:R5"/>
   <mergeCells count="9">
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -1306,10 +1306,10 @@
   <dimension ref="B2:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -1,41 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3A2E52-8593-4486-A730-2894177CDF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17865" yWindow="3795" windowWidth="13650" windowHeight="10800"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Spirit_Table!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Spirit_Table!$A$1:$R$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Spirit_Table!$A$1:$R$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC-07</author>
     <author>sangmin Lee</author>
@@ -43,7 +37,7 @@
     <author>강민수</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="2" shapeId="0">
+    <comment ref="P2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="3" shapeId="0">
+    <comment ref="Q2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="2" shapeId="0">
+    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="2" shapeId="0">
+    <comment ref="L3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>번호</t>
   </si>
@@ -626,63 +620,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>참격 사신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이프리트 기둥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이프리트 폭파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사티러 장풍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사티러 냉기탄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기사 몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 증가 마녀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발키리 2호 힐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>트롤 무적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골램 밀치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>암살자 스턴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤먼의 대형 회복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,13 +779,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -916,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,9 +905,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,14 +1238,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1331,51 +1267,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1403,8 +1339,8 @@
       <c r="P3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="6" t="s">
@@ -1619,17 +1555,17 @@
       <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>67</v>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="7">
-        <v>121003</v>
+        <v>122001</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="15">
         <v>0</v>
@@ -1647,7 +1583,7 @@
         <v>1.5</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
         <v>10</v>
@@ -1656,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="P8" s="3">
-        <v>170007</v>
+        <v>170003</v>
       </c>
       <c r="Q8" s="11">
-        <v>921006</v>
+        <v>922003</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -1667,19 +1603,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="7">
-        <v>121004</v>
+        <v>122002</v>
       </c>
       <c r="F9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="15">
         <v>0</v>
@@ -1697,7 +1633,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
         <v>10</v>
@@ -1706,10 +1642,10 @@
         <v>5</v>
       </c>
       <c r="P9" s="3">
-        <v>170008</v>
+        <v>170004</v>
       </c>
       <c r="Q9" s="11">
-        <v>921007</v>
+        <v>922002</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -1717,16 +1653,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="7">
-        <v>121005</v>
+        <v>123001</v>
       </c>
       <c r="F10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -1756,10 +1692,10 @@
         <v>5</v>
       </c>
       <c r="P10" s="3">
-        <v>170009</v>
+        <v>170005</v>
       </c>
       <c r="Q10" s="11">
-        <v>921008</v>
+        <v>923001</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1767,19 +1703,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="7">
-        <v>121006</v>
+        <v>123002</v>
       </c>
       <c r="F11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="15">
         <v>0</v>
@@ -1797,7 +1733,7 @@
         <v>1.5</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
         <v>10</v>
@@ -1806,599 +1742,49 @@
         <v>5</v>
       </c>
       <c r="P11" s="3">
-        <v>170010</v>
+        <v>170006</v>
       </c>
       <c r="Q11" s="11">
-        <v>921009</v>
+        <v>923002</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="7">
-        <v>121007</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7">
-        <v>3</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5</v>
-      </c>
-      <c r="J12" s="7">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10</v>
-      </c>
-      <c r="O12" s="7">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
-        <v>170011</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>921010</v>
-      </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="7">
-        <v>121008</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3</v>
-      </c>
-      <c r="G13" s="7">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5</v>
-      </c>
-      <c r="J13" s="7">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10</v>
-      </c>
-      <c r="O13" s="7">
-        <v>5</v>
-      </c>
-      <c r="P13" s="3">
-        <v>170012</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>921011</v>
-      </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="7">
-        <v>122001</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5</v>
-      </c>
-      <c r="J14" s="7">
-        <v>10</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10</v>
-      </c>
-      <c r="O14" s="7">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
-        <v>170003</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>922003</v>
-      </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7">
-        <v>122002</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>5</v>
-      </c>
-      <c r="J15" s="7">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M15" s="7">
-        <v>3</v>
-      </c>
-      <c r="N15" s="7">
-        <v>10</v>
-      </c>
-      <c r="O15" s="7">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>170004</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>922002</v>
-      </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="7">
-        <v>122003</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>3</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5</v>
-      </c>
-      <c r="J16" s="7">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L16" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>10</v>
-      </c>
-      <c r="O16" s="7">
-        <v>5</v>
-      </c>
-      <c r="P16" s="3">
-        <v>170013</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>922004</v>
-      </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:2">
       <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="7">
-        <v>122004</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>3</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5</v>
-      </c>
-      <c r="J17" s="7">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L17" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>10</v>
-      </c>
-      <c r="O17" s="7">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
-        <v>170014</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>922001</v>
-      </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:2">
       <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="7">
-        <v>123001</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5</v>
-      </c>
-      <c r="J18" s="7">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L18" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>10</v>
-      </c>
-      <c r="O18" s="7">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
-        <v>170005</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>923001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="2">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="7">
-        <v>123002</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5</v>
-      </c>
-      <c r="J19" s="7">
-        <v>10</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L19" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>10</v>
-      </c>
-      <c r="O19" s="7">
-        <v>5</v>
-      </c>
-      <c r="P19" s="3">
-        <v>170006</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>923002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="2">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="7">
-        <v>123003</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5</v>
-      </c>
-      <c r="J20" s="7">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L20" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>10</v>
-      </c>
-      <c r="O20" s="7">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
-        <v>170015</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>923007</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="2">
-        <v>16</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7">
-        <v>123004</v>
-      </c>
-      <c r="F21" s="7">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5</v>
-      </c>
-      <c r="J21" s="7">
-        <v>10</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L21" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3</v>
-      </c>
-      <c r="N21" s="7">
-        <v>10</v>
-      </c>
-      <c r="O21" s="7">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
-        <v>170016</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>923008</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="2">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="7">
-        <v>123005</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7">
-        <v>3</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>5</v>
-      </c>
-      <c r="J22" s="7">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="L22" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3</v>
-      </c>
-      <c r="N22" s="7">
-        <v>10</v>
-      </c>
-      <c r="O22" s="7">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
-        <v>170017</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>923009</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="B28" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17">
-      <c r="B29" s="2">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:R5"/>
+  <autoFilter ref="B5:R5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -2415,7 +1801,7 @@
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="17" man="1"/>
-    <brk id="22" max="17" man="1"/>
+    <brk id="11" max="17" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="22" man="1"/>

--- a/Assets/00.Data/Excel/SpritTable.xlsx
+++ b/Assets/00.Data/Excel/SpritTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3A2E52-8593-4486-A730-2894177CDF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Spirit_Table" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PC-07</author>
     <author>sangmin Lee</author>
@@ -37,7 +36,7 @@
     <author>강민수</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="Q2" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="K3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="L3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -576,26 +575,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>얼음 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>독 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근 불가 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 증가 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ice_Spirit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -620,14 +599,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>트롤 무적</t>
+    <t>q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1238,14 +1237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1453,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="7">
         <v>121001</v>
@@ -1486,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O6" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P6" s="3">
         <v>170001</v>
@@ -1503,10 +1502,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="E7" s="7">
         <v>121002</v>
@@ -1536,10 +1535,10 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O7" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P7" s="3">
         <v>170002</v>
@@ -1553,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="7">
         <v>122001</v>
@@ -1589,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P8" s="3">
         <v>170003</v>
@@ -1603,10 +1602,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7">
         <v>122002</v>
@@ -1636,10 +1635,10 @@
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O9" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P9" s="3">
         <v>170004</v>
@@ -1653,10 +1652,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="7">
         <v>123001</v>
@@ -1686,10 +1685,10 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P10" s="3">
         <v>170005</v>
@@ -1703,10 +1702,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E11" s="7">
         <v>123002</v>
@@ -1736,10 +1735,10 @@
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P11" s="3">
         <v>170006</v>
@@ -1784,7 +1783,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:R5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:R5"/>
   <mergeCells count="9">
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
